--- a/util/fd_data_loader/resources/wrc-template-2.xlsx
+++ b/util/fd_data_loader/resources/wrc-template-2.xlsx
@@ -1580,6 +1580,7 @@
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
+  <sheetProtection sheet="true" password="811b" objects="true" scenarios="true"/>
   <mergeCells count="11">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
